--- a/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f704_bc_tinh_hinh_CPN_theo_phong_ban.xlsx
+++ b/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f704_bc_tinh_hinh_CPN_theo_phong_ban.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02. BKIndex\ han-chinh-topica\SourceCode\BCTKApp\bin\Debug\Reports\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.[BKIndexGroup]\00.BKI_TAD\ han-chinh-topica\SourceCode\BCTKApp\bin\Debug\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,8 +65,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,###"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -229,29 +229,19 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -260,10 +250,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -271,22 +257,39 @@
     <xf numFmtId="43" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -573,7 +576,7 @@
   <dimension ref="A1:J349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,10 +584,10 @@
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26" style="13" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="23" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26" style="20" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="23" style="9" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
@@ -592,7 +595,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -600,1122 +603,1122 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="G5" s="23" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="6"/>
     </row>
     <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="6"/>
     </row>
     <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="6"/>
     </row>
     <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="6"/>
     </row>
     <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="6"/>
     </row>
     <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="A48" s="6"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+      <c r="A49" s="6"/>
     </row>
     <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="6"/>
     </row>
     <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="6"/>
     </row>
     <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="A52" s="6"/>
     </row>
     <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+      <c r="A53" s="6"/>
     </row>
     <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
+      <c r="A55" s="6"/>
     </row>
     <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+      <c r="A56" s="6"/>
     </row>
     <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+      <c r="A57" s="6"/>
     </row>
     <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+      <c r="A58" s="6"/>
     </row>
     <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="6"/>
     </row>
     <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="6"/>
     </row>
     <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
+      <c r="A61" s="6"/>
     </row>
     <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="6"/>
     </row>
     <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="6"/>
     </row>
     <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
+      <c r="A64" s="6"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
+      <c r="A65" s="6"/>
     </row>
     <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
+      <c r="A66" s="6"/>
     </row>
     <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
+      <c r="A67" s="6"/>
     </row>
     <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
+      <c r="A68" s="6"/>
     </row>
     <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
+      <c r="A69" s="6"/>
     </row>
     <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
+      <c r="A70" s="6"/>
     </row>
     <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+      <c r="A71" s="6"/>
     </row>
     <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+      <c r="A72" s="6"/>
     </row>
     <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
+      <c r="A73" s="6"/>
     </row>
     <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
+      <c r="A74" s="6"/>
     </row>
     <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+      <c r="A75" s="6"/>
     </row>
     <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
+      <c r="A76" s="6"/>
     </row>
     <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
+      <c r="A77" s="6"/>
     </row>
     <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
+      <c r="A78" s="6"/>
     </row>
     <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
+      <c r="A79" s="6"/>
     </row>
     <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
+      <c r="A80" s="6"/>
     </row>
     <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
+      <c r="A81" s="6"/>
     </row>
     <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
+      <c r="A82" s="6"/>
     </row>
     <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
+      <c r="A83" s="6"/>
     </row>
     <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
+      <c r="A84" s="6"/>
     </row>
     <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
+      <c r="A85" s="6"/>
     </row>
     <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
+      <c r="A86" s="6"/>
     </row>
     <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
+      <c r="A87" s="6"/>
     </row>
     <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+      <c r="A89" s="6"/>
     </row>
     <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+      <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="6"/>
     </row>
     <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="6"/>
     </row>
     <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="6"/>
     </row>
     <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+      <c r="A94" s="6"/>
     </row>
     <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+      <c r="A95" s="6"/>
     </row>
     <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
+      <c r="A96" s="6"/>
     </row>
     <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
+      <c r="A97" s="6"/>
     </row>
     <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
+      <c r="A98" s="6"/>
     </row>
     <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
+      <c r="A99" s="6"/>
     </row>
     <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
+      <c r="A100" s="6"/>
     </row>
     <row r="101" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
+      <c r="A101" s="6"/>
     </row>
     <row r="102" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
+      <c r="A102" s="6"/>
     </row>
     <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
+      <c r="A103" s="6"/>
     </row>
     <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
+      <c r="A104" s="6"/>
     </row>
     <row r="105" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
+      <c r="A105" s="6"/>
     </row>
     <row r="106" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
+      <c r="A106" s="6"/>
     </row>
     <row r="107" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
+      <c r="A107" s="6"/>
     </row>
     <row r="108" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
+      <c r="A108" s="6"/>
     </row>
     <row r="109" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
+      <c r="A109" s="6"/>
     </row>
     <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+      <c r="A110" s="6"/>
     </row>
     <row r="111" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
+      <c r="A111" s="6"/>
     </row>
     <row r="112" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+      <c r="A112" s="6"/>
     </row>
     <row r="113" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
+      <c r="A113" s="6"/>
     </row>
     <row r="114" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
+      <c r="A114" s="6"/>
     </row>
     <row r="115" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
+      <c r="A115" s="6"/>
     </row>
     <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
+      <c r="A116" s="6"/>
     </row>
     <row r="117" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
+      <c r="A117" s="6"/>
     </row>
     <row r="118" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
+      <c r="A118" s="6"/>
     </row>
     <row r="119" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
+      <c r="A119" s="6"/>
     </row>
     <row r="120" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
+      <c r="A120" s="6"/>
     </row>
     <row r="121" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
+      <c r="A121" s="6"/>
     </row>
     <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
+      <c r="A122" s="6"/>
     </row>
     <row r="123" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
+      <c r="A123" s="6"/>
     </row>
     <row r="124" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
+      <c r="A124" s="6"/>
     </row>
     <row r="125" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
+      <c r="A125" s="6"/>
     </row>
     <row r="126" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
+      <c r="A126" s="6"/>
     </row>
     <row r="127" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
+      <c r="A127" s="6"/>
     </row>
     <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
+      <c r="A128" s="6"/>
     </row>
     <row r="129" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
+      <c r="A129" s="6"/>
     </row>
     <row r="130" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+      <c r="A130" s="6"/>
     </row>
     <row r="131" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
+      <c r="A131" s="6"/>
     </row>
     <row r="132" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
+      <c r="A132" s="6"/>
     </row>
     <row r="133" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
+      <c r="A133" s="6"/>
     </row>
     <row r="134" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
+      <c r="A134" s="6"/>
     </row>
     <row r="135" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
+      <c r="A135" s="6"/>
     </row>
     <row r="136" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
+      <c r="A136" s="6"/>
     </row>
     <row r="137" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
+      <c r="A137" s="6"/>
     </row>
     <row r="138" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="10"/>
+      <c r="A138" s="6"/>
     </row>
     <row r="139" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
+      <c r="A139" s="6"/>
     </row>
     <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
+      <c r="A140" s="6"/>
     </row>
     <row r="141" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
+      <c r="A141" s="6"/>
     </row>
     <row r="142" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
+      <c r="A142" s="6"/>
     </row>
     <row r="143" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
+      <c r="A143" s="6"/>
     </row>
     <row r="144" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
+      <c r="A144" s="6"/>
     </row>
     <row r="145" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
+      <c r="A145" s="6"/>
     </row>
     <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
+      <c r="A146" s="6"/>
     </row>
     <row r="147" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
+      <c r="A147" s="6"/>
     </row>
     <row r="148" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
+      <c r="A148" s="6"/>
     </row>
     <row r="149" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
+      <c r="A149" s="6"/>
     </row>
     <row r="150" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
+      <c r="A150" s="6"/>
     </row>
     <row r="151" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
+      <c r="A151" s="6"/>
     </row>
     <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
+      <c r="A152" s="6"/>
     </row>
     <row r="153" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
+      <c r="A153" s="6"/>
     </row>
     <row r="154" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
+      <c r="A154" s="6"/>
     </row>
     <row r="155" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
+      <c r="A155" s="6"/>
     </row>
     <row r="156" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
+      <c r="A156" s="6"/>
     </row>
     <row r="157" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
+      <c r="A157" s="6"/>
     </row>
     <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
+      <c r="A158" s="6"/>
     </row>
     <row r="159" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
+      <c r="A159" s="6"/>
     </row>
     <row r="160" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
+      <c r="A160" s="6"/>
     </row>
     <row r="161" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
+      <c r="A161" s="6"/>
     </row>
     <row r="162" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
+      <c r="A162" s="6"/>
     </row>
     <row r="163" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
+      <c r="A163" s="6"/>
     </row>
     <row r="164" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
+      <c r="A164" s="6"/>
     </row>
     <row r="165" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
+      <c r="A165" s="6"/>
     </row>
     <row r="166" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
+      <c r="A166" s="6"/>
     </row>
     <row r="167" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
+      <c r="A167" s="6"/>
     </row>
     <row r="168" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
+      <c r="A168" s="6"/>
     </row>
     <row r="169" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
+      <c r="A169" s="6"/>
     </row>
     <row r="170" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
+      <c r="A170" s="6"/>
     </row>
     <row r="171" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
+      <c r="A171" s="6"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="8"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
+      <c r="A173" s="8"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
+      <c r="A174" s="8"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+      <c r="A175" s="8"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
+      <c r="A176" s="8"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+      <c r="A177" s="8"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+      <c r="A178" s="8"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="14"/>
+      <c r="A179" s="8"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
+      <c r="A180" s="8"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="8"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="14"/>
+      <c r="A182" s="8"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
+      <c r="A183" s="8"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="14"/>
+      <c r="A184" s="8"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
+      <c r="A185" s="8"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
+      <c r="A186" s="8"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
+      <c r="A187" s="8"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
+      <c r="A188" s="8"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
+      <c r="A189" s="8"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
+      <c r="A190" s="8"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="14"/>
+      <c r="A191" s="8"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
+      <c r="A192" s="8"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="8"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
+      <c r="A194" s="8"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
+      <c r="A195" s="8"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
+      <c r="A196" s="8"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
+      <c r="A197" s="8"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
+      <c r="A198" s="8"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
+      <c r="A199" s="8"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
+      <c r="A200" s="8"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="14"/>
+      <c r="A201" s="8"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
+      <c r="A202" s="8"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
+      <c r="A203" s="8"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
+      <c r="A204" s="8"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
+      <c r="A205" s="8"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
+      <c r="A206" s="8"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="14"/>
+      <c r="A207" s="8"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
+      <c r="A208" s="8"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
+      <c r="A209" s="8"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
+      <c r="A210" s="8"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
+      <c r="A211" s="8"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
+      <c r="A212" s="8"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
+      <c r="A213" s="8"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
+      <c r="A214" s="8"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="14"/>
+      <c r="A215" s="8"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
+      <c r="A216" s="8"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
+      <c r="A217" s="8"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
+      <c r="A218" s="8"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
+      <c r="A219" s="8"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
+      <c r="A220" s="8"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="14"/>
+      <c r="A221" s="8"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="14"/>
+      <c r="A222" s="8"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="14"/>
+      <c r="A223" s="8"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="14"/>
+      <c r="A224" s="8"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="14"/>
+      <c r="A225" s="8"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="14"/>
+      <c r="A226" s="8"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
+      <c r="A227" s="8"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="14"/>
+      <c r="A228" s="8"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
+      <c r="A229" s="8"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
+      <c r="A230" s="8"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="14"/>
+      <c r="A231" s="8"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
+      <c r="A232" s="8"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
+      <c r="A233" s="8"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="14"/>
+      <c r="A234" s="8"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
+      <c r="A235" s="8"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
+      <c r="A236" s="8"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="14"/>
+      <c r="A237" s="8"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
+      <c r="A238" s="8"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
+      <c r="A239" s="8"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="14"/>
+      <c r="A240" s="8"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
+      <c r="A241" s="8"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="14"/>
+      <c r="A242" s="8"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
+      <c r="A243" s="8"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
+      <c r="A244" s="8"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
+      <c r="A245" s="8"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
+      <c r="A246" s="8"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="14"/>
+      <c r="A247" s="8"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="14"/>
+      <c r="A248" s="8"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="14"/>
+      <c r="A249" s="8"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="14"/>
+      <c r="A250" s="8"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
+      <c r="A251" s="8"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="14"/>
+      <c r="A252" s="8"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="14"/>
+      <c r="A253" s="8"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
+      <c r="A254" s="8"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="14"/>
+      <c r="A255" s="8"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="14"/>
+      <c r="A256" s="8"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="14"/>
+      <c r="A257" s="8"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="14"/>
+      <c r="A258" s="8"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="14"/>
+      <c r="A259" s="8"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
+      <c r="A260" s="8"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="14"/>
+      <c r="A261" s="8"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="14"/>
+      <c r="A262" s="8"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="14"/>
+      <c r="A263" s="8"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
+      <c r="A264" s="8"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="14"/>
+      <c r="A265" s="8"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="14"/>
+      <c r="A266" s="8"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="14"/>
+      <c r="A267" s="8"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="14"/>
+      <c r="A268" s="8"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
+      <c r="A269" s="8"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
+      <c r="A270" s="8"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="14"/>
+      <c r="A271" s="8"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
+      <c r="A272" s="8"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="14"/>
+      <c r="A273" s="8"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="14"/>
+      <c r="A274" s="8"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
+      <c r="A275" s="8"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="14"/>
+      <c r="A276" s="8"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="14"/>
+      <c r="A277" s="8"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
+      <c r="A278" s="8"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="14"/>
+      <c r="A279" s="8"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="14"/>
+      <c r="A280" s="8"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="14"/>
+      <c r="A281" s="8"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="14"/>
+      <c r="A282" s="8"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="14"/>
+      <c r="A283" s="8"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="14"/>
+      <c r="A284" s="8"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
+      <c r="A285" s="8"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="14"/>
+      <c r="A286" s="8"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
+      <c r="A287" s="8"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
+      <c r="A288" s="8"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="14"/>
+      <c r="A289" s="8"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
+      <c r="A290" s="8"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="14"/>
+      <c r="A291" s="8"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="14"/>
+      <c r="A292" s="8"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="14"/>
+      <c r="A293" s="8"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="14"/>
+      <c r="A294" s="8"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="14"/>
+      <c r="A295" s="8"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="14"/>
+      <c r="A296" s="8"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="14"/>
+      <c r="A297" s="8"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="14"/>
+      <c r="A298" s="8"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="14"/>
+      <c r="A299" s="8"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="14"/>
+      <c r="A300" s="8"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="14"/>
+      <c r="A301" s="8"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="14"/>
+      <c r="A302" s="8"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="14"/>
+      <c r="A303" s="8"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
+      <c r="A304" s="8"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
+      <c r="A305" s="8"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="14"/>
+      <c r="A306" s="8"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
+      <c r="A307" s="8"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="14"/>
+      <c r="A308" s="8"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="14"/>
+      <c r="A309" s="8"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="14"/>
+      <c r="A310" s="8"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="14"/>
+      <c r="A311" s="8"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="14"/>
+      <c r="A312" s="8"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="14"/>
+      <c r="A313" s="8"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="14"/>
+      <c r="A314" s="8"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="14"/>
+      <c r="A315" s="8"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="14"/>
+      <c r="A316" s="8"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="14"/>
+      <c r="A317" s="8"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="14"/>
+      <c r="A318" s="8"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="14"/>
+      <c r="A319" s="8"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="14"/>
+      <c r="A320" s="8"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="14"/>
+      <c r="A321" s="8"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="14"/>
+      <c r="A322" s="8"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="14"/>
+      <c r="A323" s="8"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="14"/>
+      <c r="A324" s="8"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="14"/>
+      <c r="A325" s="8"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="14"/>
+      <c r="A326" s="8"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="14"/>
+      <c r="A327" s="8"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="14"/>
+      <c r="A328" s="8"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="14"/>
+      <c r="A329" s="8"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="14"/>
+      <c r="A330" s="8"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="14"/>
+      <c r="A331" s="8"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="14"/>
+      <c r="A332" s="8"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="14"/>
+      <c r="A333" s="8"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="14"/>
+      <c r="A334" s="8"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="14"/>
+      <c r="A335" s="8"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="14"/>
+      <c r="A336" s="8"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="14"/>
+      <c r="A337" s="8"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="14"/>
+      <c r="A338" s="8"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="14"/>
+      <c r="A339" s="8"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="14"/>
+      <c r="A340" s="8"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="14"/>
+      <c r="A341" s="8"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="14"/>
+      <c r="A342" s="8"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="14"/>
+      <c r="A343" s="8"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="14"/>
+      <c r="A344" s="8"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="14"/>
+      <c r="A345" s="8"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="14"/>
+      <c r="A346" s="8"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="14"/>
+      <c r="A347" s="8"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
+      <c r="A348" s="8"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="14"/>
+      <c r="A349" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1725,6 +1728,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f704_bc_tinh_hinh_CPN_theo_phong_ban.xlsx
+++ b/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f704_bc_tinh_hinh_CPN_theo_phong_ban.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -58,6 +58,9 @@
   <si>
     <t>Đơn vị tính: VNĐ</t>
   </si>
+  <si>
+    <t>Tổng tiền đề xuất</t>
+  </si>
 </sst>
 </file>
 
@@ -66,7 +69,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#,###"/>
+    <numFmt numFmtId="165" formatCode="#,###"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -268,6 +271,17 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -279,17 +293,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J349"/>
+  <dimension ref="A1:K349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,64 +587,66 @@
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26" style="20" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="23" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26" style="16" customWidth="1"/>
+    <col min="5" max="6" width="25.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="G5" s="15" t="s">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="H5" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -651,74 +656,77 @@
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1724,8 +1732,8 @@
   <mergeCells count="4">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
